--- a/priv/static/images/StudentList.xlsx
+++ b/priv/static/images/StudentList.xlsx
@@ -13,42 +13,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Other Name</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>BEH ZU BIN</t>
-  </si>
-  <si>
-    <t>马子斌</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+  <si>
+    <t>chinese_name</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>gicno</t>
+  </si>
+  <si>
+    <t>ic</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>pob</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>洪齐祥</t>
+  </si>
+  <si>
+    <t>20.01.2006 00:00:00</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>41127080638</t>
+  </si>
+  <si>
+    <t>ANG QI XIANG</t>
+  </si>
+  <si>
+    <t>SEBERANG JAYA</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ANG PEI XUEN</t>
-  </si>
-  <si>
-    <t>洪霈?</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>林升泉</t>
+  </si>
+  <si>
+    <t>18.03.2004 00:00:00</t>
+  </si>
+  <si>
+    <t>123777902</t>
+  </si>
+  <si>
+    <t>41127080561</t>
+  </si>
+  <si>
+    <t>BRYAN LIM TENG CHUAN</t>
+  </si>
+  <si>
+    <t>PENANG</t>
+  </si>
+  <si>
+    <t>赵明浩</t>
+  </si>
+  <si>
+    <t>01.04.2005 00:00:00</t>
+  </si>
+  <si>
+    <t>123777950</t>
+  </si>
+  <si>
+    <t>41127080609</t>
+  </si>
+  <si>
+    <t>CHOW MING HOW</t>
+  </si>
+  <si>
+    <t>BUTTERWORTH</t>
+  </si>
+  <si>
+    <t>德文仁</t>
+  </si>
+  <si>
+    <t>12.02.2009 00:00:00</t>
+  </si>
+  <si>
+    <t>123777958</t>
+  </si>
+  <si>
+    <t>41127080617</t>
+  </si>
+  <si>
+    <t>DEVVENDRAN A/L ELAYARAJA</t>
+  </si>
+  <si>
+    <t>TAN&amp;TAN SPECIALIST MATERNITY</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>希文帝兰</t>
+  </si>
+  <si>
+    <t>21.11.2005 00:00:00</t>
+  </si>
+  <si>
+    <t>7311106142</t>
+  </si>
+  <si>
+    <t>41127080647</t>
+  </si>
+  <si>
+    <t>HEMENDIRAN</t>
+  </si>
+  <si>
+    <t>林骏宏</t>
+  </si>
+  <si>
+    <t>20.01.2003 00:00:00</t>
+  </si>
+  <si>
+    <t>7311105979</t>
+  </si>
+  <si>
+    <t>41127080484</t>
+  </si>
+  <si>
+    <t>JASON LIM JUN HONG</t>
+  </si>
+  <si>
+    <t>SUNGAI PETANI</t>
+  </si>
+  <si>
+    <t>郑伟杰</t>
+  </si>
+  <si>
+    <t>22.05.2006 00:00:00</t>
+  </si>
+  <si>
+    <t>123777998</t>
+  </si>
+  <si>
+    <t>41127080657</t>
+  </si>
+  <si>
+    <t>JASON TAY WEI KIT</t>
+  </si>
+  <si>
+    <t>PULAU PINANG </t>
+  </si>
+  <si>
+    <t>郭泽翰</t>
+  </si>
+  <si>
+    <t>11.06.2005 00:00:00</t>
+  </si>
+  <si>
+    <t>123777999</t>
+  </si>
+  <si>
+    <t>41127080658</t>
+  </si>
+  <si>
+    <t>KOAY ZE HAN</t>
   </si>
 </sst>
 </file>
@@ -119,33 +254,225 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
